--- a/biology/Botanique/Huile_essentielle_de_rose/Huile_essentielle_de_rose.xlsx
+++ b/biology/Botanique/Huile_essentielle_de_rose/Huile_essentielle_de_rose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'huile essentielle de rose, ou essence de rose, ou encore attar de roses, est une huile essentielle extraite par hydrodistillation des pétales de différents types de roses. L'hydrolat de rose ou eau de rose est un sous-produit de la distillation, et est utilisé en cuisine comme aromatisant.
 La molécule principale de l'odeur des roses est le citronellol. L'huile essentielle de rose contient d'autres molécules organiques telles que le linalol, le géraniol, des cétones (damascénone, bêta-damascone, bêta-ionone), des dérivés terpéniques tels l'oxyde de nérol et l'oxyde de rose et dont certaines molécules se retrouvent dans les arômes du raisins et des vins.
@@ -515,10 +527,12 @@
           <t>Composants</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les deux espèces de roses les plus utilisées pour la production de l'huile essentielle de rose sont :
-Rosa ×damascena (appelée aussi rosier de Damas), à l’origine de 90 % des essences et absolues produites, est cultivée principalement en Bulgarie (80 % de la production mondiale[1] avec 5 346 kg en 1900 contre 1 000 à 1 300 kg dans les années 2000[2]), Chine, Turquie, Iran et Inde ;
+Rosa ×damascena (appelée aussi rosier de Damas), à l’origine de 90 % des essences et absolues produites, est cultivée principalement en Bulgarie (80 % de la production mondiale avec 5 346 kg en 1900 contre 1 000 à 1 300 kg dans les années 2000), Chine, Turquie, Iran et Inde ;
 Rosa ×centifolia, ou rosier cent-feuilles, que l'on trouve en France, au Maroc et en Égypte.</t>
         </is>
       </c>
